--- a/RDLC Reports Format/06. Godown Stock Summary/GODOWN STOCK SUMMARY.xlsx
+++ b/RDLC Reports Format/06. Godown Stock Summary/GODOWN STOCK SUMMARY.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA8FCFF-FD3A-4BB1-9991-40FFA8A0D1A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7800"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>COMPANY NAME</t>
   </si>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,10 +118,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -214,6 +216,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -249,6 +268,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -424,27 +460,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -459,8 +495,11 @@
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
